--- a/AnalogClock highlight.xlsx
+++ b/AnalogClock highlight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B1BCB-3224-4162-B398-B62013AFE3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702240E-335C-4323-9E88-B0C225717E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,19 +157,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000099"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,12 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,6 +238,18 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57624C22-0333-41EB-A72E-D82F2DE6B244}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -591,15 +609,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -619,155 +637,325 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
         <v>3</v>
       </c>
-      <c r="D3" s="13">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <f>+C3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <f>+D3</f>
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <f t="shared" ref="A5:A11" si="0">+C4</f>
-        <v>9</v>
-      </c>
-      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
         <f t="shared" ref="B5:B11" si="1">+D4</f>
-        <v>45</v>
-      </c>
-      <c r="C5" s="13">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C6" s="13">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C7" s="13">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <f t="shared" ref="A12:A18" si="2">+C11</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" ref="B12:B18" si="3">+D11</f>
+        <v>30</v>
+      </c>
+      <c r="C12" s="11">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C15" s="11">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C18" s="11">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <f t="shared" si="0"/>
+      <c r="D18" s="11">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <f t="shared" ref="A19:A20" si="4">+C18</f>
         <v>19</v>
       </c>
-      <c r="B8" s="13">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:B20" si="5">+D18</f>
+        <v>30</v>
+      </c>
+      <c r="C19" s="11">
         <v>20</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <f t="shared" si="0"/>
+      <c r="D19" s="11">
+        <v>30</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B9" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B20" s="11">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="11">
         <v>21</v>
       </c>
-      <c r="D9" s="13">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <f t="shared" ref="A21" si="6">+C20</f>
         <v>21</v>
       </c>
-      <c r="B10" s="13">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C10" s="13">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B11" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B21" s="11">
+        <f t="shared" ref="B21" si="7">+D20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
         <v>24</v>
       </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/AnalogClock highlight.xlsx
+++ b/AnalogClock highlight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702240E-335C-4323-9E88-B0C225717E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B1BCB-3224-4162-B398-B62013AFE3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,31 +157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000099"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +219,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,18 +232,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57624C22-0333-41EB-A72E-D82F2DE6B244}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,15 +591,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -637,325 +619,155 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="13">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <f>+C3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <f>+D3</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A11" si="0">+C4</f>
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <f t="shared" ref="B5:B11" si="1">+D4</f>
+        <v>45</v>
+      </c>
+      <c r="C5" s="13">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="13">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="13">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <f t="shared" ref="A5:A11" si="0">+C4</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" ref="B5:B11" si="1">+D4</f>
-        <v>30</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="C9" s="13">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11">
-        <v>30</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <f t="shared" ref="A12:A18" si="2">+C11</f>
-        <v>8</v>
-      </c>
-      <c r="B12" s="11">
-        <f t="shared" ref="B12:B18" si="3">+D11</f>
-        <v>30</v>
-      </c>
-      <c r="C12" s="11">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11">
-        <v>50</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="C13" s="11">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="C15" s="11">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B16" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B17" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>18</v>
-      </c>
-      <c r="D17" s="11">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B18" s="11">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C18" s="11">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <f t="shared" ref="A19:A20" si="4">+C18</f>
-        <v>19</v>
-      </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:B20" si="5">+D18</f>
-        <v>30</v>
-      </c>
-      <c r="C19" s="11">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11">
-        <v>30</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="C20" s="11">
-        <v>21</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <f t="shared" ref="A21" si="6">+C20</f>
-        <v>21</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" ref="B21" si="7">+D20</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="11">
-        <v>24</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/AnalogClock highlight.xlsx
+++ b/AnalogClock highlight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AnalogClockTimeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B1BCB-3224-4162-B398-B62013AFE3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731189C-E7BC-449B-9245-76A5BF73C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4688EFD4-36D5-428E-BEE4-121022B2E5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
